--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Spp1-Itgb5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Spp1-Itgb5.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>12.486902</v>
+        <v>2.276052666666667</v>
       </c>
       <c r="H2">
-        <v>37.460706</v>
+        <v>6.828158</v>
       </c>
       <c r="I2">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="J2">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.460162333333335</v>
+        <v>4.277890333333334</v>
       </c>
       <c r="N2">
-        <v>28.380487</v>
+        <v>12.833671</v>
       </c>
       <c r="O2">
-        <v>0.08197024919772997</v>
+        <v>0.04123357425337639</v>
       </c>
       <c r="P2">
-        <v>0.08197024919772997</v>
+        <v>0.04123357425337638</v>
       </c>
       <c r="Q2">
-        <v>118.1281199604247</v>
+        <v>9.736703700890892</v>
       </c>
       <c r="R2">
-        <v>1063.153079643822</v>
+        <v>87.63033330801802</v>
       </c>
       <c r="S2">
-        <v>0.00123312206195656</v>
+        <v>0.0002163778880066069</v>
       </c>
       <c r="T2">
-        <v>0.00123312206195656</v>
+        <v>0.0002163778880066068</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>12.486902</v>
+        <v>2.276052666666667</v>
       </c>
       <c r="H3">
-        <v>37.460706</v>
+        <v>6.828158</v>
       </c>
       <c r="I3">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="J3">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>138.547699</v>
       </c>
       <c r="O3">
-        <v>0.4001618933742075</v>
+        <v>0.4451428460610328</v>
       </c>
       <c r="P3">
-        <v>0.4001618933742075</v>
+        <v>0.4451428460610327</v>
       </c>
       <c r="Q3">
-        <v>576.6771799128327</v>
+        <v>105.1139532564936</v>
       </c>
       <c r="R3">
-        <v>5190.094619215494</v>
+        <v>946.0255793084419</v>
       </c>
       <c r="S3">
-        <v>0.006019848224247061</v>
+        <v>0.002335937900994584</v>
       </c>
       <c r="T3">
-        <v>0.006019848224247061</v>
+        <v>0.002335937900994584</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>12.486902</v>
+        <v>2.276052666666667</v>
       </c>
       <c r="H4">
-        <v>37.460706</v>
+        <v>6.828158</v>
       </c>
       <c r="I4">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="J4">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.365307333333332</v>
+        <v>8.558147333333332</v>
       </c>
       <c r="N4">
-        <v>25.095922</v>
+        <v>25.674442</v>
       </c>
       <c r="O4">
-        <v>0.0724835687346307</v>
+        <v>0.08248996024761777</v>
       </c>
       <c r="P4">
-        <v>0.07248356873463072</v>
+        <v>0.08248996024761777</v>
       </c>
       <c r="Q4">
-        <v>104.4567728712147</v>
+        <v>19.47879405975955</v>
       </c>
       <c r="R4">
-        <v>940.110955840932</v>
+        <v>175.309146537836</v>
       </c>
       <c r="S4">
-        <v>0.001090408881402951</v>
+        <v>0.0004328754832275286</v>
       </c>
       <c r="T4">
-        <v>0.001090408881402951</v>
+        <v>0.0004328754832275287</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>12.486902</v>
+        <v>2.276052666666667</v>
       </c>
       <c r="H5">
-        <v>37.460706</v>
+        <v>6.828158</v>
       </c>
       <c r="I5">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="J5">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>51.40166966666666</v>
+        <v>44.72914066666667</v>
       </c>
       <c r="N5">
-        <v>154.205009</v>
+        <v>134.187422</v>
       </c>
       <c r="O5">
-        <v>0.4453842886934318</v>
+        <v>0.4311336194379731</v>
       </c>
       <c r="P5">
-        <v>0.4453842886934319</v>
+        <v>0.431133619437973</v>
       </c>
       <c r="Q5">
-        <v>641.8476117640394</v>
+        <v>101.8058798920751</v>
       </c>
       <c r="R5">
-        <v>5776.628505876354</v>
+        <v>916.252919028676</v>
       </c>
       <c r="S5">
-        <v>0.006700152772646567</v>
+        <v>0.002262422885035099</v>
       </c>
       <c r="T5">
-        <v>0.006700152772646568</v>
+        <v>0.002262422885035099</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>138.256042</v>
       </c>
       <c r="I6">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="J6">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.460162333333335</v>
+        <v>4.277890333333334</v>
       </c>
       <c r="N6">
-        <v>28.380487</v>
+        <v>12.833671</v>
       </c>
       <c r="O6">
-        <v>0.08197024919772997</v>
+        <v>0.04123357425337639</v>
       </c>
       <c r="P6">
-        <v>0.08197024919772997</v>
+        <v>0.04123357425337638</v>
       </c>
       <c r="Q6">
-        <v>435.9748669613839</v>
+        <v>197.1480618655758</v>
       </c>
       <c r="R6">
-        <v>3923.773802652454</v>
+        <v>1774.332556790182</v>
       </c>
       <c r="S6">
-        <v>0.00455107748340335</v>
+        <v>0.004381203594309437</v>
       </c>
       <c r="T6">
-        <v>0.00455107748340335</v>
+        <v>0.004381203594309436</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>138.256042</v>
       </c>
       <c r="I7">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="J7">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>138.547699</v>
       </c>
       <c r="O7">
-        <v>0.4001618933742075</v>
+        <v>0.4451428460610328</v>
       </c>
       <c r="P7">
-        <v>0.4001618933742075</v>
+        <v>0.4451428460610327</v>
       </c>
       <c r="Q7">
         <v>2128.339610216373</v>
@@ -883,10 +883,10 @@
         <v>19155.05649194736</v>
       </c>
       <c r="S7">
-        <v>0.02221742401024495</v>
+        <v>0.04729789916245335</v>
       </c>
       <c r="T7">
-        <v>0.02221742401024495</v>
+        <v>0.04729789916245335</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>138.256042</v>
       </c>
       <c r="I8">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="J8">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.365307333333332</v>
+        <v>8.558147333333332</v>
       </c>
       <c r="N8">
-        <v>25.095922</v>
+        <v>25.674442</v>
       </c>
       <c r="O8">
-        <v>0.0724835687346307</v>
+        <v>0.08248996024761777</v>
       </c>
       <c r="P8">
-        <v>0.07248356873463072</v>
+        <v>0.08248996024761777</v>
       </c>
       <c r="Q8">
-        <v>385.5180940067471</v>
+        <v>394.4051923865071</v>
       </c>
       <c r="R8">
-        <v>3469.662846060724</v>
+        <v>3549.646731478564</v>
       </c>
       <c r="S8">
-        <v>0.004024366655140439</v>
+        <v>0.008764831011507861</v>
       </c>
       <c r="T8">
-        <v>0.00402436665514044</v>
+        <v>0.008764831011507863</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>138.256042</v>
       </c>
       <c r="I9">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="J9">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>51.40166966666666</v>
+        <v>44.72914066666667</v>
       </c>
       <c r="N9">
-        <v>154.205009</v>
+        <v>134.187422</v>
       </c>
       <c r="O9">
-        <v>0.4453842886934318</v>
+        <v>0.4311336194379731</v>
       </c>
       <c r="P9">
-        <v>0.4453842886934319</v>
+        <v>0.431133619437973</v>
       </c>
       <c r="Q9">
-        <v>2368.863800101597</v>
+        <v>2061.357983544859</v>
       </c>
       <c r="R9">
-        <v>21319.77420091438</v>
+        <v>18552.22185190372</v>
       </c>
       <c r="S9">
-        <v>0.02472822063581611</v>
+        <v>0.04580937251527775</v>
       </c>
       <c r="T9">
-        <v>0.02472822063581611</v>
+        <v>0.04580937251527775</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>105.0040076666667</v>
+        <v>41.187613</v>
       </c>
       <c r="H10">
-        <v>315.012023</v>
+        <v>123.562839</v>
       </c>
       <c r="I10">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532416</v>
       </c>
       <c r="J10">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532417</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.460162333333335</v>
+        <v>4.277890333333334</v>
       </c>
       <c r="N10">
-        <v>28.380487</v>
+        <v>12.833671</v>
       </c>
       <c r="O10">
-        <v>0.08197024919772997</v>
+        <v>0.04123357425337639</v>
       </c>
       <c r="P10">
-        <v>0.08197024919772997</v>
+        <v>0.04123357425337638</v>
       </c>
       <c r="Q10">
-        <v>993.3549581772447</v>
+        <v>176.1960915057744</v>
       </c>
       <c r="R10">
-        <v>8940.194623595202</v>
+        <v>1585.764823551969</v>
       </c>
       <c r="S10">
-        <v>0.0103694862382697</v>
+        <v>0.003915589847059835</v>
       </c>
       <c r="T10">
-        <v>0.0103694862382697</v>
+        <v>0.003915589847059835</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>105.0040076666667</v>
+        <v>41.187613</v>
       </c>
       <c r="H11">
-        <v>315.012023</v>
+        <v>123.562839</v>
       </c>
       <c r="I11">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532416</v>
       </c>
       <c r="J11">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532417</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>138.547699</v>
       </c>
       <c r="O11">
-        <v>0.4001618933742075</v>
+        <v>0.4451428460610328</v>
       </c>
       <c r="P11">
-        <v>0.4001618933742075</v>
+        <v>0.4451428460610327</v>
       </c>
       <c r="Q11">
-        <v>4849.354549331675</v>
+        <v>1902.149669484162</v>
       </c>
       <c r="R11">
-        <v>43644.19094398507</v>
+        <v>17119.34702535746</v>
       </c>
       <c r="S11">
-        <v>0.05062169856790805</v>
+        <v>0.04227130051392949</v>
       </c>
       <c r="T11">
-        <v>0.05062169856790805</v>
+        <v>0.04227130051392949</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>105.0040076666667</v>
+        <v>41.187613</v>
       </c>
       <c r="H12">
-        <v>315.012023</v>
+        <v>123.562839</v>
       </c>
       <c r="I12">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532416</v>
       </c>
       <c r="J12">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532417</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.365307333333332</v>
+        <v>8.558147333333332</v>
       </c>
       <c r="N12">
-        <v>25.095922</v>
+        <v>25.674442</v>
       </c>
       <c r="O12">
-        <v>0.0724835687346307</v>
+        <v>0.08248996024761777</v>
       </c>
       <c r="P12">
-        <v>0.07248356873463072</v>
+        <v>0.08248996024761777</v>
       </c>
       <c r="Q12">
-        <v>878.3907953633561</v>
+        <v>352.4896603623153</v>
       </c>
       <c r="R12">
-        <v>7905.517158270205</v>
+        <v>3172.406943260838</v>
       </c>
       <c r="S12">
-        <v>0.009169392259396034</v>
+        <v>0.00783334592449242</v>
       </c>
       <c r="T12">
-        <v>0.009169392259396036</v>
+        <v>0.007833345924492422</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>105.0040076666667</v>
+        <v>41.187613</v>
       </c>
       <c r="H13">
-        <v>315.012023</v>
+        <v>123.562839</v>
       </c>
       <c r="I13">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532416</v>
       </c>
       <c r="J13">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532417</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>51.40166966666666</v>
+        <v>44.72914066666667</v>
       </c>
       <c r="N13">
-        <v>154.205009</v>
+        <v>134.187422</v>
       </c>
       <c r="O13">
-        <v>0.4453842886934318</v>
+        <v>0.4311336194379731</v>
       </c>
       <c r="P13">
-        <v>0.4453842886934319</v>
+        <v>0.431133619437973</v>
       </c>
       <c r="Q13">
-        <v>5397.381315758133</v>
+        <v>1842.286535601228</v>
       </c>
       <c r="R13">
-        <v>48576.43184182321</v>
+        <v>16580.57882041106</v>
       </c>
       <c r="S13">
-        <v>0.05634246934162036</v>
+        <v>0.04094096748984242</v>
       </c>
       <c r="T13">
-        <v>0.05634246934162037</v>
+        <v>0.04094096748984242</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>666.4749603333333</v>
+        <v>344.1819356666667</v>
       </c>
       <c r="H14">
-        <v>1999.424881</v>
+        <v>1032.545807</v>
       </c>
       <c r="I14">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838636</v>
       </c>
       <c r="J14">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838637</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.460162333333335</v>
+        <v>4.277890333333334</v>
       </c>
       <c r="N14">
-        <v>28.380487</v>
+        <v>12.833671</v>
       </c>
       <c r="O14">
-        <v>0.08197024919772997</v>
+        <v>0.04123357425337639</v>
       </c>
       <c r="P14">
-        <v>0.08197024919772997</v>
+        <v>0.04123357425337638</v>
       </c>
       <c r="Q14">
-        <v>6304.961315855228</v>
+        <v>1472.372575496389</v>
       </c>
       <c r="R14">
-        <v>56744.65184269705</v>
+        <v>13251.3531794675</v>
       </c>
       <c r="S14">
-        <v>0.06581656341410035</v>
+        <v>0.03272040292400051</v>
       </c>
       <c r="T14">
-        <v>0.06581656341410035</v>
+        <v>0.03272040292400051</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>666.4749603333333</v>
+        <v>344.1819356666667</v>
       </c>
       <c r="H15">
-        <v>1999.424881</v>
+        <v>1032.545807</v>
       </c>
       <c r="I15">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838636</v>
       </c>
       <c r="J15">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838637</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>138.547699</v>
       </c>
       <c r="O15">
-        <v>0.4001618933742075</v>
+        <v>0.4451428460610328</v>
       </c>
       <c r="P15">
-        <v>0.4001618933742075</v>
+        <v>0.4451428460610327</v>
       </c>
       <c r="Q15">
-        <v>30779.52406509987</v>
+        <v>15895.2050746609</v>
       </c>
       <c r="R15">
-        <v>277015.7165858988</v>
+        <v>143056.8456719481</v>
       </c>
       <c r="S15">
-        <v>0.3213029225718074</v>
+        <v>0.3532377084836553</v>
       </c>
       <c r="T15">
-        <v>0.3213029225718074</v>
+        <v>0.3532377084836553</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>666.4749603333333</v>
+        <v>344.1819356666667</v>
       </c>
       <c r="H16">
-        <v>1999.424881</v>
+        <v>1032.545807</v>
       </c>
       <c r="I16">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838636</v>
       </c>
       <c r="J16">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838637</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.365307333333332</v>
+        <v>8.558147333333332</v>
       </c>
       <c r="N16">
-        <v>25.095922</v>
+        <v>25.674442</v>
       </c>
       <c r="O16">
-        <v>0.0724835687346307</v>
+        <v>0.08248996024761777</v>
       </c>
       <c r="P16">
-        <v>0.07248356873463072</v>
+        <v>0.08248996024761777</v>
       </c>
       <c r="Q16">
-        <v>5575.267873159475</v>
+        <v>2945.559714907188</v>
       </c>
       <c r="R16">
-        <v>50177.41085843527</v>
+        <v>26510.03743416469</v>
       </c>
       <c r="S16">
-        <v>0.05819940093869128</v>
+        <v>0.06545890782838996</v>
       </c>
       <c r="T16">
-        <v>0.05819940093869129</v>
+        <v>0.06545890782838996</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>666.4749603333333</v>
+        <v>344.1819356666667</v>
       </c>
       <c r="H17">
-        <v>1999.424881</v>
+        <v>1032.545807</v>
       </c>
       <c r="I17">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838636</v>
       </c>
       <c r="J17">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838637</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>51.40166966666666</v>
+        <v>44.72914066666667</v>
       </c>
       <c r="N17">
-        <v>154.205009</v>
+        <v>134.187422</v>
       </c>
       <c r="O17">
-        <v>0.4453842886934318</v>
+        <v>0.4311336194379731</v>
       </c>
       <c r="P17">
-        <v>0.4453842886934319</v>
+        <v>0.431133619437973</v>
       </c>
       <c r="Q17">
-        <v>34257.92575215877</v>
+        <v>15394.96221535995</v>
       </c>
       <c r="R17">
-        <v>308321.3317694289</v>
+        <v>138554.6599382396</v>
       </c>
       <c r="S17">
-        <v>0.3576134459433488</v>
+        <v>0.3421208565478178</v>
       </c>
       <c r="T17">
-        <v>0.3576134459433488</v>
+        <v>0.3421208565478178</v>
       </c>
     </row>
   </sheetData>
